--- a/Data/Top250_Movies.xlsx
+++ b/Data/Top250_Movies.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajouackr-my.sharepoint.com/personal/kychan9044_ajou_ac_kr/Documents/02.University/4학년/1학기/03.딥러닝응용/movie_recommendation/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_13D1E3FB8C1B0B2B192C4CFECD2F1D897978DC95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F263F97-DC9F-4961-B539-63AD3B6588A1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2278,12 +2284,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2291,8 +2297,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2338,17 +2351,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2386,7 +2407,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2420,6 +2441,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2454,9 +2476,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2629,14 +2652,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2647,7 +2675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2658,7 +2686,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2669,7 +2697,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2680,7 +2708,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2691,7 +2719,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2702,7 +2730,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2713,7 +2741,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2724,7 +2752,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2735,7 +2763,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2746,7 +2774,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +2785,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +2796,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2779,7 +2807,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2790,7 +2818,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2801,7 +2829,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2812,7 +2840,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2851,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2834,7 +2862,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2845,7 +2873,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2856,7 +2884,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2867,7 +2895,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2878,7 +2906,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2889,7 +2917,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2900,7 +2928,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2911,7 +2939,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2922,7 +2950,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2933,7 +2961,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2944,7 +2972,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2955,7 +2983,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2966,7 +2994,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2977,7 +3005,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2988,7 +3016,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2999,7 +3027,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3010,7 +3038,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3021,7 +3049,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3032,7 +3060,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3043,7 +3071,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3054,7 +3082,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3065,7 +3093,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3076,7 +3104,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3087,7 +3115,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3098,7 +3126,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3109,7 +3137,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3120,7 +3148,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3131,7 +3159,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3142,7 +3170,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3153,7 +3181,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3164,7 +3192,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3175,7 +3203,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3186,7 +3214,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3197,7 +3225,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3208,7 +3236,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3219,7 +3247,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3230,7 +3258,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3241,7 +3269,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3252,7 +3280,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3263,7 +3291,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3274,7 +3302,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3285,7 +3313,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3296,7 +3324,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3307,7 +3335,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3318,7 +3346,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3329,7 +3357,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3340,7 +3368,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3351,7 +3379,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3362,7 +3390,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3373,7 +3401,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3384,7 +3412,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3395,7 +3423,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3406,7 +3434,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3417,7 +3445,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3428,7 +3456,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3439,7 +3467,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3450,7 +3478,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3461,7 +3489,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3472,7 +3500,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3483,7 +3511,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3494,7 +3522,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3505,7 +3533,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3516,7 +3544,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3527,7 +3555,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3538,7 +3566,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3549,7 +3577,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3560,7 +3588,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3571,7 +3599,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3582,7 +3610,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3593,7 +3621,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3604,7 +3632,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3615,7 +3643,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3626,7 +3654,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3637,7 +3665,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3648,7 +3676,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3659,7 +3687,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3670,7 +3698,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3681,7 +3709,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3692,7 +3720,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3703,7 +3731,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3714,7 +3742,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3725,7 +3753,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3736,7 +3764,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3747,7 +3775,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3758,7 +3786,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3769,7 +3797,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3780,7 +3808,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3791,7 +3819,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3802,7 +3830,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3813,7 +3841,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3824,7 +3852,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3835,7 +3863,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3846,7 +3874,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3857,7 +3885,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3868,7 +3896,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3879,7 +3907,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3890,7 +3918,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3901,7 +3929,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3912,7 +3940,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3923,7 +3951,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3934,7 +3962,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3945,7 +3973,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3956,7 +3984,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3967,7 +3995,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3978,7 +4006,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3989,7 +4017,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4000,7 +4028,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4011,7 +4039,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4022,7 +4050,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4033,7 +4061,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4044,7 +4072,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4055,7 +4083,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4066,7 +4094,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4077,7 +4105,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -4088,7 +4116,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -4099,7 +4127,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -4110,7 +4138,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -4121,7 +4149,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -4132,7 +4160,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -4143,7 +4171,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -4154,7 +4182,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -4165,7 +4193,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -4176,7 +4204,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -4187,7 +4215,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -4198,7 +4226,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -4209,7 +4237,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -4220,7 +4248,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4231,7 +4259,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -4242,7 +4270,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -4253,7 +4281,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -4264,7 +4292,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4275,7 +4303,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4286,7 +4314,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4297,7 +4325,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4308,7 +4336,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -4319,7 +4347,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -4330,7 +4358,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -4341,7 +4369,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -4352,7 +4380,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -4363,7 +4391,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4374,7 +4402,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -4385,7 +4413,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -4396,7 +4424,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -4407,7 +4435,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -4418,7 +4446,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -4429,7 +4457,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -4440,7 +4468,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -4451,7 +4479,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -4462,7 +4490,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -4473,7 +4501,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -4484,7 +4512,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -4495,7 +4523,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -4506,7 +4534,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -4517,7 +4545,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -4528,7 +4556,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -4539,7 +4567,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -4550,7 +4578,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -4561,7 +4589,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -4572,7 +4600,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -4583,7 +4611,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -4594,7 +4622,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -4605,7 +4633,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -4616,7 +4644,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -4627,7 +4655,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -4638,7 +4666,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -4649,7 +4677,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -4660,7 +4688,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -4671,7 +4699,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -4682,7 +4710,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -4693,7 +4721,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -4704,7 +4732,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -4715,7 +4743,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -4726,7 +4754,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4737,7 +4765,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -4748,7 +4776,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -4759,7 +4787,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -4770,7 +4798,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -4781,7 +4809,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -4792,7 +4820,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -4803,7 +4831,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -4814,7 +4842,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -4825,7 +4853,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -4836,7 +4864,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -4847,7 +4875,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -4858,7 +4886,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -4869,7 +4897,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -4880,7 +4908,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -4891,7 +4919,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -4902,7 +4930,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -4913,7 +4941,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -4924,7 +4952,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -4935,7 +4963,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4946,7 +4974,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -4957,7 +4985,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -4968,7 +4996,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4979,7 +5007,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4990,7 +5018,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -5001,7 +5029,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -5012,7 +5040,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -5023,7 +5051,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -5034,7 +5062,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -5045,7 +5073,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -5056,7 +5084,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -5067,7 +5095,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -5078,7 +5106,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -5089,7 +5117,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -5100,7 +5128,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -5111,7 +5139,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -5122,7 +5150,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -5133,7 +5161,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -5144,7 +5172,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -5155,7 +5183,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -5166,7 +5194,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -5177,7 +5205,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -5188,7 +5216,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -5199,7 +5227,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -5210,7 +5238,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -5221,7 +5249,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -5232,7 +5260,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -5243,7 +5271,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -5254,7 +5282,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -5265,7 +5293,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -5276,7 +5304,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -5287,7 +5315,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -5298,7 +5326,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -5309,7 +5337,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -5320,7 +5348,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -5331,7 +5359,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -5342,7 +5370,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -5353,7 +5381,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -5364,7 +5392,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -5375,7 +5403,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -5386,7 +5414,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -5397,7 +5425,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -5409,6 +5437,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>